--- a/data_impute_project/combinations/marine_mammals/combination_2_ABCDE.xlsx
+++ b/data_impute_project/combinations/marine_mammals/combination_2_ABCDE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,180 +436,230 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hb 19</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-19.17</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>11.21</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-14.81</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-9.460000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>15.6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hb 20</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>-19.88</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>13.81</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-16.27</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-9.91</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>14.92</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S 17</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-14.51</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>12.93</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-9.76</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-8.859999999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>16.87</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Hb 50</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-19.34</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>8.33</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-14.48</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-5.75</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>19.59</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hb 28</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-12.54</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>15.24</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-8.130000000000001</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-8.880000000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>15.3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hb 30</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-15.98</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>11.21</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-9.35</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-7.54</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>15.04</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hb 23</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-20.7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>8.630000000000001</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-11.22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-8.73</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>17.21</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hb 26</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-15.98</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>13.18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-6.23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-10.18</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>15.58</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hb 27</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-13.41</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>16.96</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-9.710000000000001</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-8.970000000000001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>15.25</v>
       </c>
     </row>
